--- a/tp1-A20/data/results_analyzed.xlsx
+++ b/tp1-A20/data/results_analyzed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claudiaonorato/Documents/polydossier/INF8775/tp1-A20/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F49B4657-C7CE-F442-9034-2162740EF811}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E46D07FB-29C6-3C4D-96F6-61500170022E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1860" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="1"/>
   </bookViews>
@@ -4770,6 +4770,2214 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CA" sz="1100"/>
+              <a:t>Test</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CA" sz="1100" baseline="0"/>
+              <a:t> des constantes pour l'algorithme brute avec h(n)=n^2</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CA" sz="1100"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$H$2:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>640000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2560000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10240000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40960000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>26.234602928161564</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101.22370719909645</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>416.0702228546138</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1742.3414468765209</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6706.4792871475183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26724.34356212612</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4FAE-4C45-9673-4F38CC159781}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1581494288"/>
+        <c:axId val="1557037936"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1581494288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>h(n)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1557037936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1557037936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>T(n)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1581494288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CA" sz="1050" b="0" i="0" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Test des constantes pour l'algorithme DpR avec seuil de récursivité élémentaire de 3 avec h(n)=n</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CA" sz="1050">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.17068832020997377"/>
+                  <c:y val="0.17976851851851852"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$8:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>102400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$D$8:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.5154590606689422</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3563346862792933</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.157390594482369</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.368564605712855</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.725054740905705</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>168.9322233200069</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>387.0710134506221</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>847.9805707931514</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1845.4958915710399</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4070.1161861419646</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-777C-C049-B504-F4ADF39F34C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1528411376"/>
+        <c:axId val="1611997680"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1528411376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>h(n)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1611997680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1611997680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>T(n)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1528411376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CA" sz="1000" b="0" i="0" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Test des constantes pour l'algorithme DpR avec seuil de récursivité déterminé par EE de 8 avec h(n)=n</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CA" sz="1000">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1195909886264217"/>
+                  <c:y val="0.13754629629629631"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$18:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>102400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$D$18:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.4769525527954004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1049461364746058</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.285202026367124</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.564255714416419</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.871311187744084</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>201.31504535675009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>557.32922554016011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1173.339772224424</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2291.2601947784392</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3822.5191354751546</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B825-9A4D-B5E8-A4D86B140558}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1557828544"/>
+        <c:axId val="1583163744"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1557828544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>h(n)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1583163744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1583163744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>T(n)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1557828544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CA" sz="1000" b="0" i="0" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Test des constantes pour l'algorithme DpR avec seuil de récursivité élémentaire de 3 avec h(n)=nlogn</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CA" sz="1000">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$D$8:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.5154590606689422</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3563346862792933</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.157390594482369</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.368564605712855</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.725054740905705</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>168.9322233200069</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>387.0710134506221</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>847.9805707931514</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1845.4958915710399</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4070.1161861419646</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$I$8:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>460.20599913279625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1040.823996531185</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2322.471989593555</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5126.5919722494791</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11216.479930623698</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24359.551833496876</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52572.28761149272</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>112850.94311198333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>241114.6220019625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>513054.71555991669</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-38DD-3543-BCB8-1AABAAC80FBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1580960304"/>
+        <c:axId val="1580823424"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1580960304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>h(n)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1580823424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1580823424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>T(n)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1580960304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -5259,6 +7467,585 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1534170128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CA" sz="1000" b="0" i="0" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Test des constantes pour l'algorithme DpR avec seuil de récursivité déterminé par EE de 8 avec h(n)=nlogn</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CA" sz="1000">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16168044619422572"/>
+          <c:y val="0.19483814523184603"/>
+          <c:w val="0.76854177602799645"/>
+          <c:h val="0.6376155584718578"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.19365529308836396"/>
+                  <c:y val="0.14578521434820649"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$D$18:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.4769525527954004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1049461364746058</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.285202026367124</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.564255714416419</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.871311187744084</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>201.31504535675009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>557.32922554016011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1173.339772224424</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2291.2601947784392</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3822.5191354751546</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$I$18:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>460.20599913279625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1040.823996531185</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2322.471989593555</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5126.5919722494791</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11216.479930623698</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24359.551833496876</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52572.28761149272</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>112850.94311198333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>241114.6220019625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>513054.71555991669</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6463-A240-BEFD-2CD36A7EA8DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1556642464"/>
+        <c:axId val="1584117360"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1556642464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>h(n)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1584117360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1584117360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>T(n)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1556642464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9736,7 +12523,207 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -13668,7 +16655,2587 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17806,10 +23373,10 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>527050</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>334818</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>150091</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17836,16 +23403,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>458930</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>92364</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>785091</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>150091</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17872,16 +23439,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>826078</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>206665</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>796635</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18338,6 +23905,186 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438727</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>207818</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Graphique 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B751A716-CE93-A949-8899-60CDF0AA42F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>288636</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Graphique 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1973CF7-8E6E-7340-8BB7-C974FE3CD78E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>115453</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>192808</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>369454</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>11544</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Graphique 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75A09CAB-E4F3-EA49-A72E-2362EC0F533D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>346362</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>92362</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>588818</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>184728</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="22" name="Graphique 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20F5AFC7-85E5-CE46-9E73-DC5AB72D78E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>375229</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>204354</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>658090</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="23" name="Graphique 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76A1036C-6AA9-7541-9905-80132D131B48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -22630,8 +28377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
